--- a/public/data/marketing-data.xlsx
+++ b/public/data/marketing-data.xlsx
@@ -606,14 +606,30 @@
       <c r="B9" s="3">
         <v>46038.0</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="4">
+        <v>6459.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>373.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>33.0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>19.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -622,14 +638,30 @@
       <c r="B10" s="3">
         <v>46040.0</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="4">
+        <v>6403.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>457.0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>32.0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -638,14 +670,30 @@
       <c r="B11" s="3">
         <v>46042.0</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="C11" s="4">
+        <v>2753.0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>196.0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -654,14 +702,30 @@
       <c r="B12" s="3">
         <v>46044.0</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="C12" s="4">
+        <v>5529.0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>399.0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42.0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>24.0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
